--- a/database/industries/ravankar/shaspa/product/quarterly.xlsx
+++ b/database/industries/ravankar/shaspa/product/quarterly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25006627-EB4A-4BC2-974B-56AA08B04E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7D46EE-D16F-4A3A-8D89-03D02C106097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/industries/ravankar/shaspa/product/quarterly.xlsx
+++ b/database/industries/ravankar/shaspa/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D2E9BA-9D96-4D46-BF4E-5DE942902666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA074F0E-563D-4853-A694-C4EA6C00B001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="49">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -607,16 +622,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I150"/>
+  <dimension ref="B1:N150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -625,8 +640,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -637,8 +657,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -649,8 +674,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -659,8 +689,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -671,8 +706,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -683,8 +723,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -693,8 +738,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -715,8 +765,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -725,460 +790,750 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>796</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1116</v>
+      </c>
+      <c r="G10" s="9">
+        <v>304</v>
+      </c>
+      <c r="H10" s="9">
+        <v>375</v>
+      </c>
+      <c r="I10" s="9">
+        <v>963</v>
+      </c>
+      <c r="J10" s="9">
         <v>656</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11">
         <v>-1994</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>102484</v>
+      </c>
+      <c r="F12" s="9">
+        <v>109108</v>
+      </c>
+      <c r="G12" s="9">
+        <v>105793</v>
+      </c>
+      <c r="H12" s="9">
+        <v>113847</v>
+      </c>
+      <c r="I12" s="9">
+        <v>110935</v>
+      </c>
+      <c r="J12" s="9">
         <v>108165</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="11">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11">
         <v>280235</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>79799</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>63046</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>61649</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9">
+        <v>17</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="9">
         <v>22185</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>3515</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>5901</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>10986</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="11">
+        <v>17</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="11">
         <v>721</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>1</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9">
+        <v>17</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9">
         <v>1677</v>
       </c>
-      <c r="G18" s="9">
+      <c r="L18" s="9">
         <v>146</v>
       </c>
-      <c r="H18" s="9">
+      <c r="M18" s="9">
         <v>459</v>
       </c>
-      <c r="I18" s="9">
+      <c r="N18" s="9">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>80085</v>
+      </c>
+      <c r="F19" s="11">
+        <v>82059</v>
+      </c>
+      <c r="G19" s="11">
+        <v>56622</v>
+      </c>
+      <c r="H19" s="11">
+        <v>71702</v>
+      </c>
+      <c r="I19" s="11">
+        <v>75702</v>
+      </c>
+      <c r="J19" s="11">
         <v>66693</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="11">
+        <v>17</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="11">
         <v>42140</v>
       </c>
-      <c r="G21" s="11">
+      <c r="L21" s="11">
         <v>14377</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>6641</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>5524</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9">
+        <v>17</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="9">
         <v>64984</v>
       </c>
-      <c r="G22" s="9">
+      <c r="L22" s="9">
         <v>12324</v>
       </c>
-      <c r="H22" s="9">
+      <c r="M22" s="9">
         <v>20540</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>11453</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="11">
+        <v>17</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="11">
         <v>61323</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>10535</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>16160</v>
       </c>
-      <c r="I23" s="11">
+      <c r="N23" s="11">
         <v>25827</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9">
+        <v>17</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="9">
         <v>24256</v>
       </c>
-      <c r="G24" s="9">
+      <c r="L24" s="9">
         <v>6139</v>
       </c>
-      <c r="H24" s="9">
+      <c r="M24" s="9">
         <v>4874</v>
       </c>
-      <c r="I24" s="9">
+      <c r="N24" s="9">
         <v>5447</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="11">
+        <v>17</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="11">
         <v>7536</v>
       </c>
-      <c r="G25" s="11">
+      <c r="L25" s="11">
         <v>2820</v>
       </c>
-      <c r="H25" s="11">
+      <c r="M25" s="11">
         <v>961</v>
       </c>
-      <c r="I25" s="11">
+      <c r="N25" s="11">
         <v>2366</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9">
+        <v>17</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="9">
         <v>215915</v>
       </c>
-      <c r="G26" s="9">
+      <c r="L26" s="9">
         <v>51935</v>
       </c>
-      <c r="H26" s="9">
+      <c r="M26" s="9">
         <v>51171</v>
       </c>
-      <c r="I26" s="9">
+      <c r="N26" s="9">
         <v>61665</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="11">
+        <v>17</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="11">
         <v>0</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
+        <v>183365</v>
+      </c>
+      <c r="F28" s="13">
+        <v>192283</v>
+      </c>
+      <c r="G28" s="13">
+        <v>162719</v>
+      </c>
+      <c r="H28" s="13">
+        <v>185924</v>
+      </c>
+      <c r="I28" s="13">
+        <v>187600</v>
+      </c>
+      <c r="J28" s="13">
         <v>175514</v>
       </c>
-      <c r="F28" s="13">
+      <c r="K28" s="13">
         <v>718978</v>
       </c>
-      <c r="G28" s="13">
+      <c r="L28" s="13">
         <v>181590</v>
       </c>
-      <c r="H28" s="13">
+      <c r="M28" s="13">
         <v>169754</v>
       </c>
-      <c r="I28" s="13">
+      <c r="N28" s="13">
         <v>185212</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1187,8 +1542,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1197,8 +1557,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1207,10 +1572,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1229,8 +1599,23 @@
       <c r="I32" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1239,354 +1624,569 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
+        <v>902</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1106</v>
+      </c>
+      <c r="G35" s="11">
+        <v>192</v>
+      </c>
+      <c r="H35" s="11">
+        <v>382</v>
+      </c>
+      <c r="I35" s="11">
+        <v>878</v>
+      </c>
+      <c r="J35" s="11">
         <v>808</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="9">
+        <v>17</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="9">
         <v>-2068</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
+        <v>117930</v>
+      </c>
+      <c r="F37" s="11">
+        <v>106018</v>
+      </c>
+      <c r="G37" s="11">
+        <v>106307</v>
+      </c>
+      <c r="H37" s="11">
+        <v>104642</v>
+      </c>
+      <c r="I37" s="11">
+        <v>128351</v>
+      </c>
+      <c r="J37" s="11">
         <v>94203</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="9">
+        <v>17</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="9">
         <v>77222</v>
       </c>
-      <c r="H38" s="9">
+      <c r="M38" s="9">
         <v>82845</v>
       </c>
-      <c r="I38" s="9">
+      <c r="N38" s="9">
         <v>55513</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>12</v>
+      <c r="E40" s="9">
+        <v>-21</v>
+      </c>
+      <c r="F40" s="9">
+        <v>-21</v>
+      </c>
+      <c r="G40" s="9">
+        <v>-30</v>
+      </c>
+      <c r="H40" s="9">
+        <v>-10</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="11">
+        <v>17</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="11">
         <v>3452</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>1910</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>5695</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="11">
+        <v>17</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="11">
         <v>77</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>7</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="9">
+        <v>17</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="9">
         <v>189</v>
       </c>
-      <c r="H46" s="9">
+      <c r="M46" s="9">
         <v>502</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>69927</v>
+      </c>
+      <c r="F47" s="11">
+        <v>69357</v>
+      </c>
+      <c r="G47" s="11">
+        <v>73618</v>
+      </c>
+      <c r="H47" s="11">
+        <v>75867</v>
+      </c>
+      <c r="I47" s="11">
+        <v>72963</v>
+      </c>
+      <c r="J47" s="11">
         <v>79915</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>12</v>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
       </c>
       <c r="G48" s="9">
         <v>0</v>
@@ -1597,222 +2197,372 @@
       <c r="I48" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="9">
+        <v>17</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="9">
         <v>10099</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>12297</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>7103</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="11">
+        <v>17</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="11">
         <v>12340</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>17037</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>14811</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="9">
+        <v>17</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="9">
         <v>11198</v>
       </c>
-      <c r="H52" s="9">
+      <c r="M52" s="9">
         <v>15781</v>
       </c>
-      <c r="I52" s="9">
+      <c r="N52" s="9">
         <v>23726</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="11">
+        <v>17</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="11">
         <v>5755</v>
       </c>
-      <c r="H53" s="11">
+      <c r="M53" s="11">
         <v>5035</v>
       </c>
-      <c r="I53" s="11">
+      <c r="N53" s="11">
         <v>5263</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="9">
+        <v>17</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="9">
         <v>2395</v>
       </c>
-      <c r="H54" s="9">
+      <c r="M54" s="9">
         <v>1597</v>
       </c>
-      <c r="I54" s="9">
+      <c r="N54" s="9">
         <v>2276</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="11">
+        <v>17</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="11">
         <v>58932</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>53960</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>60854</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="9">
+        <v>17</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="9">
         <v>0</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
+        <v>188738</v>
+      </c>
+      <c r="F57" s="15">
+        <v>176460</v>
+      </c>
+      <c r="G57" s="15">
+        <v>180087</v>
+      </c>
+      <c r="H57" s="15">
+        <v>180881</v>
+      </c>
+      <c r="I57" s="15">
+        <v>202192</v>
+      </c>
+      <c r="J57" s="15">
         <v>174926</v>
       </c>
-      <c r="F57" s="15">
+      <c r="K57" s="15">
         <v>-2068</v>
       </c>
-      <c r="G57" s="15">
+      <c r="L57" s="15">
         <v>181659</v>
       </c>
-      <c r="H57" s="15">
+      <c r="M57" s="15">
         <v>190971</v>
       </c>
-      <c r="I57" s="15">
+      <c r="N57" s="15">
         <v>175524</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1821,8 +2571,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1831,8 +2586,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1841,10 +2601,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1863,8 +2628,23 @@
       <c r="I61" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1873,486 +2653,791 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
+        <v>134565</v>
+      </c>
+      <c r="F63" s="9">
+        <v>263262</v>
+      </c>
+      <c r="G63" s="9">
+        <v>41665</v>
+      </c>
+      <c r="H63" s="9">
+        <v>79671</v>
+      </c>
+      <c r="I63" s="9">
+        <v>266431</v>
+      </c>
+      <c r="J63" s="9">
         <v>258067</v>
       </c>
-      <c r="F63" s="9">
+      <c r="K63" s="9">
         <v>-604169</v>
       </c>
-      <c r="G63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>12242831</v>
+      </c>
+      <c r="F64" s="11">
+        <v>17578556</v>
+      </c>
+      <c r="G64" s="11">
+        <v>19500698</v>
+      </c>
+      <c r="H64" s="11">
+        <v>21895096</v>
+      </c>
+      <c r="I64" s="11">
+        <v>29580134</v>
+      </c>
+      <c r="J64" s="11">
         <v>24439852</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="9">
+        <v>17</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="9">
         <v>20554556</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>24210200</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>14541074</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>12</v>
+      <c r="E66" s="11">
+        <v>-288254</v>
+      </c>
+      <c r="F66" s="11">
+        <v>-248166</v>
+      </c>
+      <c r="G66" s="11">
+        <v>-504609</v>
+      </c>
+      <c r="H66" s="11">
+        <v>-2692</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="9">
+        <v>17</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="9">
         <v>998886</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>539082</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>1280378</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="11">
+        <v>17</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="11">
         <v>32134</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>2988</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>60805</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="9">
+        <v>17</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="9">
         <v>76303</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>270248</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>55527</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>3504639</v>
+      </c>
+      <c r="F72" s="11">
+        <v>4971105</v>
+      </c>
+      <c r="G72" s="11">
+        <v>6348848</v>
+      </c>
+      <c r="H72" s="11">
+        <v>6217565</v>
+      </c>
+      <c r="I72" s="11">
+        <v>7355851</v>
+      </c>
+      <c r="J72" s="11">
         <v>9512870</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>12</v>
+      <c r="E73" s="9">
+        <v>0</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0</v>
       </c>
       <c r="G73" s="9">
         <v>0</v>
       </c>
       <c r="H73" s="9">
-        <v>0</v>
+        <v>-209651</v>
       </c>
       <c r="I73" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9">
+        <v>0</v>
+      </c>
+      <c r="N73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="9">
+        <v>17</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="9">
         <v>2898411</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>3337273</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>1791152</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="11">
+        <v>17</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="11">
         <v>3880740</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>5743795</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>4750418</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="9">
+        <v>17</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="9">
         <v>4905990</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>7557780</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>9105676</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="11">
+        <v>17</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="11">
         <v>2347615</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>2047801</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>2056996</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="9">
+        <v>17</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="9">
         <v>1060127</v>
       </c>
-      <c r="H79" s="9">
+      <c r="M79" s="9">
         <v>752776</v>
       </c>
-      <c r="I79" s="9">
+      <c r="N79" s="9">
         <v>949514</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="11">
+        <v>17</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="11">
         <v>8451568</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>5847929</v>
       </c>
-      <c r="I80" s="11">
+      <c r="N80" s="11">
         <v>5499128</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="9">
+        <v>17</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="9">
         <v>0</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
+        <v>15593781</v>
+      </c>
+      <c r="F82" s="15">
+        <v>22564757</v>
+      </c>
+      <c r="G82" s="15">
+        <v>25386602</v>
+      </c>
+      <c r="H82" s="15">
+        <v>27979989</v>
+      </c>
+      <c r="I82" s="15">
+        <v>37202416</v>
+      </c>
+      <c r="J82" s="15">
         <v>34210789</v>
       </c>
-      <c r="F82" s="15">
+      <c r="K82" s="15">
         <v>-604169</v>
       </c>
-      <c r="G82" s="15">
+      <c r="L82" s="15">
         <v>45206330</v>
       </c>
-      <c r="H82" s="15">
+      <c r="M82" s="15">
         <v>50309872</v>
       </c>
-      <c r="I82" s="15">
+      <c r="N82" s="15">
         <v>40090668</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2361,8 +3446,13 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2371,8 +3461,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2381,10 +3476,15 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2403,8 +3503,23 @@
       <c r="I86" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2413,464 +3528,754 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
+        <v>149185144</v>
+      </c>
+      <c r="F88" s="9">
+        <v>209459313</v>
+      </c>
+      <c r="G88" s="9">
+        <v>217005208</v>
+      </c>
+      <c r="H88" s="9">
+        <v>208562827</v>
+      </c>
+      <c r="I88" s="9">
+        <v>303452164</v>
+      </c>
+      <c r="J88" s="9">
         <v>319389851</v>
       </c>
-      <c r="F88" s="9">
+      <c r="K88" s="9">
         <v>292151354</v>
       </c>
-      <c r="G88" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
+        <v>103814390</v>
+      </c>
+      <c r="F89" s="11">
+        <v>161067659</v>
+      </c>
+      <c r="G89" s="11">
+        <v>183437572</v>
+      </c>
+      <c r="H89" s="11">
+        <v>209238126</v>
+      </c>
+      <c r="I89" s="11">
+        <v>230462825</v>
+      </c>
+      <c r="J89" s="11">
         <v>259438150</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="9">
+        <v>17</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="9">
         <v>212003454</v>
       </c>
-      <c r="G90" s="9">
+      <c r="L90" s="9">
         <v>266174872</v>
       </c>
-      <c r="H90" s="9">
+      <c r="M90" s="9">
         <v>292234896</v>
       </c>
-      <c r="I90" s="9">
+      <c r="N90" s="9">
         <v>261939978</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>12</v>
+      <c r="E91" s="11">
+        <v>13726380952</v>
+      </c>
+      <c r="F91" s="11">
+        <v>11817428571</v>
+      </c>
+      <c r="G91" s="11">
+        <v>16820300000</v>
+      </c>
+      <c r="H91" s="11">
+        <v>269200000</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="9">
+        <v>17</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="9">
         <v>186501272</v>
       </c>
-      <c r="G94" s="9">
+      <c r="L94" s="9">
         <v>289364426</v>
       </c>
-      <c r="H94" s="9">
+      <c r="M94" s="9">
         <v>282241885</v>
       </c>
-      <c r="I94" s="9">
+      <c r="N94" s="9">
         <v>224824934</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="11">
+        <v>17</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="11">
         <v>230742025</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>417324675</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>426857143</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>419344828</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="9">
+        <v>17</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="9">
         <v>320205068</v>
       </c>
-      <c r="G96" s="9">
+      <c r="L96" s="9">
         <v>403719577</v>
       </c>
-      <c r="H96" s="9">
+      <c r="M96" s="9">
         <v>538342629</v>
       </c>
-      <c r="I96" s="9">
+      <c r="N96" s="9">
         <v>402369565</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>50118538</v>
+      </c>
+      <c r="F97" s="11">
+        <v>71674150</v>
+      </c>
+      <c r="G97" s="11">
+        <v>86240430</v>
+      </c>
+      <c r="H97" s="11">
+        <v>81953484</v>
+      </c>
+      <c r="I97" s="11">
+        <v>100816181</v>
+      </c>
+      <c r="J97" s="11">
         <v>119037352</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="9">
+        <v>17</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" s="9">
         <v>206547242</v>
       </c>
-      <c r="G100" s="9">
+      <c r="L100" s="9">
         <v>286999802</v>
       </c>
-      <c r="H100" s="9">
+      <c r="M100" s="9">
         <v>271389201</v>
       </c>
-      <c r="I100" s="9">
+      <c r="N100" s="9">
         <v>252168380</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="11">
+        <v>17</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="11">
         <v>240868793</v>
       </c>
-      <c r="G101" s="11">
+      <c r="L101" s="11">
         <v>314484603</v>
       </c>
-      <c r="H101" s="11">
+      <c r="M101" s="11">
         <v>337136526</v>
       </c>
-      <c r="I101" s="11">
+      <c r="N101" s="11">
         <v>320735804</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="9">
+        <v>17</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="9">
         <v>306752457</v>
       </c>
-      <c r="G102" s="9">
+      <c r="L102" s="9">
         <v>438113056</v>
       </c>
-      <c r="H102" s="9">
+      <c r="M102" s="9">
         <v>478916418</v>
       </c>
-      <c r="I102" s="9">
+      <c r="N102" s="9">
         <v>383784709</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="11">
+        <v>17</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="11">
         <v>281818043</v>
       </c>
-      <c r="G103" s="11">
+      <c r="L103" s="11">
         <v>407926151</v>
       </c>
-      <c r="H103" s="11">
+      <c r="M103" s="11">
         <v>406713208</v>
       </c>
-      <c r="I103" s="11">
+      <c r="N103" s="11">
         <v>390840965</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="9">
+        <v>17</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="9">
         <v>310625077</v>
       </c>
-      <c r="G104" s="9">
+      <c r="L104" s="9">
         <v>442641754</v>
       </c>
-      <c r="H104" s="9">
+      <c r="M104" s="9">
         <v>471368817</v>
       </c>
-      <c r="I104" s="9">
+      <c r="N104" s="9">
         <v>417185413</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="11">
+        <v>17</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="11">
         <v>82216268</v>
       </c>
-      <c r="G105" s="11">
+      <c r="L105" s="11">
         <v>143412204</v>
       </c>
-      <c r="H105" s="11">
+      <c r="M105" s="11">
         <v>108375259</v>
       </c>
-      <c r="I105" s="11">
+      <c r="N105" s="11">
         <v>90365925</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2879,8 +4284,13 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2889,8 +4299,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2899,10 +4314,15 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -2921,8 +4341,23 @@
       <c r="I110" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2931,212 +4366,337 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9">
+        <v>-87362</v>
+      </c>
+      <c r="F112" s="9">
+        <v>-151557</v>
+      </c>
+      <c r="G112" s="9">
+        <v>-56948</v>
+      </c>
+      <c r="H112" s="9">
+        <v>-57065</v>
+      </c>
+      <c r="I112" s="9">
+        <v>-210834</v>
+      </c>
+      <c r="J112" s="9">
         <v>-229511</v>
       </c>
-      <c r="F112" s="9">
+      <c r="K112" s="9">
         <v>497410</v>
       </c>
-      <c r="G112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N112" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
+        <v>-9531497</v>
+      </c>
+      <c r="F113" s="11">
+        <v>-11509265</v>
+      </c>
+      <c r="G113" s="11">
+        <v>-15345046</v>
+      </c>
+      <c r="H113" s="11">
+        <v>-15656201</v>
+      </c>
+      <c r="I113" s="11">
+        <v>-12838411</v>
+      </c>
+      <c r="J113" s="11">
         <v>-25126082</v>
       </c>
-      <c r="F113" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N113" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="9">
+        <v>17</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="9">
         <v>-36835789</v>
       </c>
-      <c r="G114" s="9">
+      <c r="L114" s="9">
         <v>-15439779</v>
       </c>
-      <c r="H114" s="9">
+      <c r="M114" s="9">
         <v>-20356003</v>
       </c>
-      <c r="I114" s="9">
+      <c r="N114" s="9">
         <v>-9464684</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>12</v>
+      <c r="E115" s="11">
+        <v>0</v>
+      </c>
+      <c r="F115" s="11">
+        <v>0</v>
+      </c>
+      <c r="G115" s="11">
+        <v>0</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="9">
+        <v>17</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" s="9">
         <v>-2829987</v>
       </c>
-      <c r="G116" s="9">
+      <c r="L116" s="9">
         <v>-631672</v>
       </c>
-      <c r="H116" s="9">
+      <c r="M116" s="9">
         <v>-267337</v>
       </c>
-      <c r="I116" s="9">
+      <c r="N116" s="9">
         <v>-1198102</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="11">
+        <v>17</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K117" s="11">
         <v>-149849</v>
       </c>
-      <c r="G117" s="11">
+      <c r="L117" s="11">
         <v>-13447</v>
       </c>
-      <c r="H117" s="11">
+      <c r="M117" s="11">
         <v>-1659</v>
       </c>
-      <c r="I117" s="11">
+      <c r="N117" s="11">
         <v>-36815</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="9">
+        <v>17</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="9">
         <v>-378286</v>
       </c>
-      <c r="G118" s="9">
+      <c r="L118" s="9">
         <v>-45421</v>
       </c>
-      <c r="H118" s="9">
+      <c r="M118" s="9">
         <v>-144139</v>
       </c>
-      <c r="I118" s="9">
+      <c r="N118" s="9">
         <v>-35852</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
+        <v>-1801149</v>
+      </c>
+      <c r="F119" s="11">
+        <v>-3088984</v>
+      </c>
+      <c r="G119" s="11">
+        <v>-3497459</v>
+      </c>
+      <c r="H119" s="11">
+        <v>-3618778</v>
+      </c>
+      <c r="I119" s="11">
+        <v>-12841957</v>
+      </c>
+      <c r="J119" s="11">
         <v>1438755</v>
       </c>
-      <c r="F119" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>12</v>
+      <c r="E120" s="9">
+        <v>0</v>
+      </c>
+      <c r="F120" s="9">
+        <v>0</v>
       </c>
       <c r="G120" s="9">
         <v>0</v>
@@ -3147,198 +4707,333 @@
       <c r="I120" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L120" s="9">
+        <v>0</v>
+      </c>
+      <c r="M120" s="9">
+        <v>0</v>
+      </c>
+      <c r="N120" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="11">
+        <v>17</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="11">
         <v>-5437892</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>-1693227</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>-2166497</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>-922734</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="9">
+        <v>17</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" s="9">
         <v>-15704877</v>
       </c>
-      <c r="G122" s="9">
+      <c r="L122" s="9">
         <v>-2875823</v>
       </c>
-      <c r="H122" s="9">
+      <c r="M122" s="9">
         <v>-6257222</v>
       </c>
-      <c r="I122" s="9">
+      <c r="N122" s="9">
         <v>-4855016</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="11">
+        <v>17</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="11">
         <v>-15139349</v>
       </c>
-      <c r="G123" s="11">
+      <c r="L123" s="11">
         <v>-3574637</v>
       </c>
-      <c r="H123" s="11">
+      <c r="M123" s="11">
         <v>-6219960</v>
       </c>
-      <c r="I123" s="11">
+      <c r="N123" s="11">
         <v>-7661538</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="9">
+        <v>17</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" s="9">
         <v>-5443351</v>
       </c>
-      <c r="G124" s="9">
+      <c r="L124" s="9">
         <v>-1496714</v>
       </c>
-      <c r="H124" s="9">
+      <c r="M124" s="9">
         <v>-1589609</v>
       </c>
-      <c r="I124" s="9">
+      <c r="N124" s="9">
         <v>-1362794</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="11">
+        <v>17</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K125" s="11">
         <v>-1745388</v>
       </c>
-      <c r="G125" s="11">
+      <c r="L125" s="11">
         <v>-572178</v>
       </c>
-      <c r="H125" s="11">
+      <c r="M125" s="11">
         <v>-620275</v>
       </c>
-      <c r="I125" s="11">
+      <c r="N125" s="11">
         <v>-643064</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="9">
+        <v>17</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K126" s="9">
         <v>-12691604</v>
       </c>
-      <c r="G126" s="9">
+      <c r="L126" s="9">
         <v>-5755091</v>
       </c>
-      <c r="H126" s="9">
+      <c r="M126" s="9">
         <v>-3354517</v>
       </c>
-      <c r="I126" s="9">
+      <c r="N126" s="9">
         <v>-4255817</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="11">
+        <v>17</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="11">
         <v>0</v>
       </c>
-      <c r="G127" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
+        <v>-11420008</v>
+      </c>
+      <c r="F128" s="13">
+        <v>-14749806</v>
+      </c>
+      <c r="G128" s="13">
+        <v>-18899453</v>
+      </c>
+      <c r="H128" s="13">
+        <v>-19332044</v>
+      </c>
+      <c r="I128" s="13">
+        <v>-25891202</v>
+      </c>
+      <c r="J128" s="13">
         <v>-23916838</v>
       </c>
-      <c r="F128" s="13">
+      <c r="K128" s="13">
         <v>-95858962</v>
       </c>
-      <c r="G128" s="13">
+      <c r="L128" s="13">
         <v>-32097989</v>
       </c>
-      <c r="H128" s="13">
+      <c r="M128" s="13">
         <v>-40977218</v>
       </c>
-      <c r="I128" s="13">
+      <c r="N128" s="13">
         <v>-30436416</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3347,8 +5042,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3357,8 +5057,13 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3367,10 +5072,15 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3389,8 +5099,23 @@
       <c r="I132" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3399,410 +5124,670 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9">
+        <v>47203</v>
+      </c>
+      <c r="F134" s="9">
+        <v>80105</v>
+      </c>
+      <c r="G134" s="9">
+        <v>-15283</v>
+      </c>
+      <c r="H134" s="9">
+        <v>22606</v>
+      </c>
+      <c r="I134" s="9">
+        <v>55597</v>
+      </c>
+      <c r="J134" s="9">
         <v>28556</v>
       </c>
-      <c r="F134" s="9">
+      <c r="K134" s="9">
         <v>-106759</v>
       </c>
-      <c r="G134" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L134" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M134" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N134" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11">
+        <v>2711334</v>
+      </c>
+      <c r="F135" s="11">
+        <v>5554726</v>
+      </c>
+      <c r="G135" s="11">
+        <v>4155652</v>
+      </c>
+      <c r="H135" s="11">
+        <v>6238895</v>
+      </c>
+      <c r="I135" s="11">
+        <v>16741723</v>
+      </c>
+      <c r="J135" s="11">
         <v>-686230</v>
       </c>
-      <c r="F135" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I135" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K135" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M135" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N135" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="9">
+        <v>17</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" s="9">
         <v>20060426</v>
       </c>
-      <c r="G136" s="9">
+      <c r="L136" s="9">
         <v>5114777</v>
       </c>
-      <c r="H136" s="9">
+      <c r="M136" s="9">
         <v>3854197</v>
       </c>
-      <c r="I136" s="9">
+      <c r="N136" s="9">
         <v>5076390</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>12</v>
+      <c r="E137" s="11">
+        <v>-288254</v>
+      </c>
+      <c r="F137" s="11">
+        <v>-248166</v>
+      </c>
+      <c r="G137" s="11">
+        <v>-504609</v>
+      </c>
+      <c r="H137" s="11">
+        <v>-2692</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="9">
+        <v>17</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K138" s="9">
         <v>1201984</v>
       </c>
-      <c r="G138" s="9">
+      <c r="L138" s="9">
         <v>367214</v>
       </c>
-      <c r="H138" s="9">
+      <c r="M138" s="9">
         <v>271745</v>
       </c>
-      <c r="I138" s="9">
+      <c r="N138" s="9">
         <v>82276</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="11">
+        <v>17</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K139" s="11">
         <v>16516</v>
       </c>
-      <c r="G139" s="11">
+      <c r="L139" s="11">
         <v>18687</v>
       </c>
-      <c r="H139" s="11">
+      <c r="M139" s="11">
         <v>1329</v>
       </c>
-      <c r="I139" s="11">
+      <c r="N139" s="11">
         <v>23990</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="9">
+        <v>17</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K140" s="9">
         <v>165102</v>
       </c>
-      <c r="G140" s="9">
+      <c r="L140" s="9">
         <v>30882</v>
       </c>
-      <c r="H140" s="9">
+      <c r="M140" s="9">
         <v>126109</v>
       </c>
-      <c r="I140" s="9">
+      <c r="N140" s="9">
         <v>19675</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11">
+        <v>1703490</v>
+      </c>
+      <c r="F141" s="11">
+        <v>1882120</v>
+      </c>
+      <c r="G141" s="11">
+        <v>2851389</v>
+      </c>
+      <c r="H141" s="11">
+        <v>2598787</v>
+      </c>
+      <c r="I141" s="11">
+        <v>-5486106</v>
+      </c>
+      <c r="J141" s="11">
         <v>10951625</v>
       </c>
-      <c r="F141" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I141" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D142" s="9"/>
-      <c r="E142" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>12</v>
+      <c r="E142" s="9">
+        <v>0</v>
+      </c>
+      <c r="F142" s="9">
+        <v>0</v>
       </c>
       <c r="G142" s="9">
         <v>0</v>
       </c>
       <c r="H142" s="9">
+        <v>-209651</v>
+      </c>
+      <c r="I142" s="9">
+        <v>209651</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L142" s="9">
         <v>0</v>
       </c>
-      <c r="I142" s="9">
+      <c r="M142" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N142" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="11">
+        <v>17</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K143" s="11">
         <v>2893191</v>
       </c>
-      <c r="G143" s="11">
+      <c r="L143" s="11">
         <v>1205184</v>
       </c>
-      <c r="H143" s="11">
+      <c r="M143" s="11">
         <v>1170776</v>
       </c>
-      <c r="I143" s="11">
+      <c r="N143" s="11">
         <v>868418</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="9">
+        <v>17</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" s="9">
         <v>492345</v>
       </c>
-      <c r="G144" s="9">
+      <c r="L144" s="9">
         <v>1004917</v>
       </c>
-      <c r="H144" s="9">
+      <c r="M144" s="9">
         <v>-513427</v>
       </c>
-      <c r="I144" s="9">
+      <c r="N144" s="9">
         <v>-104598</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="11">
+        <v>17</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="11">
         <v>4053232</v>
       </c>
-      <c r="G145" s="11">
+      <c r="L145" s="11">
         <v>1331353</v>
       </c>
-      <c r="H145" s="11">
+      <c r="M145" s="11">
         <v>1337820</v>
       </c>
-      <c r="I145" s="11">
+      <c r="N145" s="11">
         <v>1444138</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="9">
+        <v>17</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="9">
         <v>1569691</v>
       </c>
-      <c r="G146" s="9">
+      <c r="L146" s="9">
         <v>850901</v>
       </c>
-      <c r="H146" s="9">
+      <c r="M146" s="9">
         <v>458192</v>
       </c>
-      <c r="I146" s="9">
+      <c r="N146" s="9">
         <v>694202</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" s="11">
+        <v>17</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="11">
         <v>786517</v>
       </c>
-      <c r="G147" s="11">
+      <c r="L147" s="11">
         <v>487949</v>
       </c>
-      <c r="H147" s="11">
+      <c r="M147" s="11">
         <v>132501</v>
       </c>
-      <c r="I147" s="11">
+      <c r="N147" s="11">
         <v>306450</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" s="9">
+        <v>17</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" s="9">
         <v>4382084</v>
       </c>
-      <c r="G148" s="9">
+      <c r="L148" s="9">
         <v>2696477</v>
       </c>
-      <c r="H148" s="9">
+      <c r="M148" s="9">
         <v>2493412</v>
       </c>
-      <c r="I148" s="9">
+      <c r="N148" s="9">
         <v>1243311</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="11">
+        <v>17</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="11">
         <v>0</v>
       </c>
-      <c r="G149" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I149" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L149" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M149" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N149" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13">
+        <v>4173773</v>
+      </c>
+      <c r="F150" s="13">
+        <v>7268785</v>
+      </c>
+      <c r="G150" s="13">
+        <v>6487149</v>
+      </c>
+      <c r="H150" s="13">
+        <v>8647945</v>
+      </c>
+      <c r="I150" s="13">
+        <v>11520865</v>
+      </c>
+      <c r="J150" s="13">
         <v>10293951</v>
       </c>
-      <c r="F150" s="13">
+      <c r="K150" s="13">
         <v>35514329</v>
       </c>
-      <c r="G150" s="13">
+      <c r="L150" s="13">
         <v>13108341</v>
       </c>
-      <c r="H150" s="13">
+      <c r="M150" s="13">
         <v>9332654</v>
       </c>
-      <c r="I150" s="13">
+      <c r="N150" s="13">
         <v>9654252</v>
       </c>
     </row>

--- a/database/industries/ravankar/shaspa/product/quarterly.xlsx
+++ b/database/industries/ravankar/shaspa/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA074F0E-563D-4853-A694-C4EA6C00B001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B65B2A-D9C6-4675-8788-253A311DDEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -626,12 +626,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -646,7 +646,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -695,7 +695,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -712,7 +712,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -744,7 +744,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -781,7 +781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -796,7 +796,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -835,7 +835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -874,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -913,7 +913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -952,7 +952,7 @@
         <v>61649</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -991,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>10986</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>5524</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>11453</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>25827</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>5447</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>61665</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>185212</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1548,7 +1548,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1563,7 +1563,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1578,7 +1578,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>36</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1630,7 +1630,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>15</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>15</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>19</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>20</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>55513</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>20</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>21</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>22</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>23</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>5695</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>23</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>24</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>25</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>26</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>27</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>39</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>28</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>7103</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>29</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>14811</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>30</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>23726</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>31</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>5263</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>32</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>33</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>60854</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>34</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>35</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>175524</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2577,7 +2577,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2592,7 +2592,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2607,7 +2607,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>40</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2659,7 +2659,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>15</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>19</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>20</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>14541074</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>38</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>21</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>22</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>23</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>1280378</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>24</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>60805</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>25</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>55527</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>26</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>27</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>39</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>28</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>1791152</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>29</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>4750418</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>30</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>9105676</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>31</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>2056996</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>32</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>949514</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>33</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>5499128</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>34</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>35</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>40090668</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3452,7 +3452,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3467,7 +3467,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3482,7 +3482,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>42</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3534,7 +3534,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>15</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>19</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>20</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>261939978</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>38</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>21</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>22</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>23</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>224824934</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>24</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>419344828</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>25</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>402369565</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>26</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>27</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>39</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>28</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>252168380</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>29</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>320735804</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>30</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>383784709</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>31</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>390840965</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>32</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>417185413</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>33</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>90365925</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>34</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4290,7 +4290,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4305,7 +4305,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4320,7 +4320,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>47</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4372,7 +4372,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>15</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>19</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>20</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>-9464684</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>38</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>23</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>-1198102</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>24</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>-36815</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>25</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>-35852</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>26</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>27</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>28</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>-922734</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>29</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>-4855016</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>30</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>-7661538</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>31</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>-1362794</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>32</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>-643064</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>33</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>-4255817</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>34</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>35</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>-30436416</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -5048,7 +5048,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -5063,7 +5063,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -5078,7 +5078,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
         <v>48</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5130,7 +5130,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>15</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>19</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>20</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>5076390</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>38</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>23</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>82276</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>24</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>23990</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>25</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>19675</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>26</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>27</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>28</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>868418</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>29</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>-104598</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>30</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>1444138</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>31</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>694202</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>32</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>306450</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>33</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>1243311</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>34</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="12" t="s">
         <v>35</v>
       </c>
